--- a/光的干涉法测平凸透镜曲率半径/光的干涉法测平凸透镜曲率半径.xlsx
+++ b/光的干涉法测平凸透镜曲率半径/光的干涉法测平凸透镜曲率半径.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\feisibo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\CQUPT-Physics-Lab\光的干涉法测平凸透镜曲率半径\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BCA2B3-1E79-4D1C-B283-8A8FF4D7F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B19110-8DAC-4627-9631-C65AF8888629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="1830" windowWidth="21600" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>namda→</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,7 +78,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>①只能改黄色部分，其他部分是公式 ②单位是mm</t>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①只能改黄色部分，其他部分是公式 ②单位是mm ③输入数据会自动出结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +113,7 @@
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +134,20 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -170,6 +203,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -483,21 +517,21 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>5.8929999999999996E-4</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -511,19 +545,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
